--- a/MagnetGame/Project1/Assets/test.xlsx
+++ b/MagnetGame/Project1/Assets/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MyDirectXLib\Project1\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MagnetGame\MagnetGame\Project1\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
   <si>
-    <t>g1|N|1</t>
+    <t>g0|N|1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>g2|N|0</t>
+    <t>g0|N|1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>g2|N|0</t>
+    <t>g0|N|1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g1|N|0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -386,7 +390,7 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1493,23 +1497,23 @@
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1615,23 +1619,23 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1737,23 +1741,23 @@
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1859,23 +1863,23 @@
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1981,23 +1985,23 @@
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2103,23 +2107,23 @@
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2</v>
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2362,14 +2366,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2484,14 +2488,14 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2606,14 +2610,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2728,14 +2732,14 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2850,14 +2854,14 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2972,14 +2976,14 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>

--- a/MagnetGame/Project1/Assets/test.xlsx
+++ b/MagnetGame/Project1/Assets/test.xlsx
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
   <si>
-    <t>g0|N|1</t>
+    <t>g1|N|0|0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>g0|N|1</t>
+    <t>g1|N|0|0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>g0|N|1</t>
+    <t>g1|N|0|0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>g1|N|0</t>
+    <t>g0|N|1|0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,7 +390,7 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2489,13 +2489,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2733,13 +2733,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2855,13 +2855,13 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2977,13 +2977,13 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>

--- a/MagnetGame/Project1/Assets/test.xlsx
+++ b/MagnetGame/Project1/Assets/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="6">
   <si>
     <t>g1|N|0|0</t>
     <phoneticPr fontId="1"/>
@@ -39,6 +39,14 @@
   </si>
   <si>
     <t>g0|N|1|0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g2|N|1|0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g3|S|0|0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,7 +398,7 @@
   <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="AE12" sqref="AC12:AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -968,17 +976,17 @@
       <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
+      <c r="AB5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>5</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1090,17 +1098,17 @@
       <c r="AA6">
         <v>0</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
+      <c r="AB6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>5</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1212,17 +1220,17 @@
       <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
+      <c r="AB7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>5</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1334,17 +1342,17 @@
       <c r="AA8">
         <v>0</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
+      <c r="AB8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>5</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1823,16 +1831,16 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1945,16 +1953,16 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2798,17 +2806,17 @@
       <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
+      <c r="AB20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>4</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2920,17 +2928,17 @@
       <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
+      <c r="AB21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>4</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -3042,17 +3050,17 @@
       <c r="AA22">
         <v>1</v>
       </c>
-      <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
+      <c r="AB22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>4</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -3206,7 +3214,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A20:AN23 A16:E19 L16:AN19 A1:AN15">
+  <conditionalFormatting sqref="A20:AN23 A16:E19 L16:AA19 AF16:AN19 A1:AN15">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
